--- a/www.eia.gov/electricity/monthly/xls/table_1_09_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_09_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.9.B. Utility Scale Facility Net Generation from Nuclear Energy</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,13 +1389,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>27001</v>
+        <v>29892</v>
       </c>
       <c r="C7" s="10">
-        <v>26670</v>
+        <v>28903</v>
       </c>
       <c r="D7" s="11">
-        <v>1.2E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>27001</v>
+        <v>29892</v>
       </c>
       <c r="H7" s="10">
-        <v>26670</v>
+        <v>28903</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>13519</v>
+        <v>15022</v>
       </c>
       <c r="C8" s="13">
-        <v>14576</v>
+        <v>15854</v>
       </c>
       <c r="D8" s="14">
-        <v>-7.1999999999999995E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>13519</v>
+        <v>15022</v>
       </c>
       <c r="H8" s="13">
-        <v>14576</v>
+        <v>15854</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>4551</v>
+        <v>5039</v>
       </c>
       <c r="C10" s="13">
-        <v>4003</v>
+        <v>4493</v>
       </c>
       <c r="D10" s="14">
-        <v>0.13700000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>4551</v>
+        <v>5039</v>
       </c>
       <c r="H10" s="13">
-        <v>4003</v>
+        <v>4493</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1541,13 +1541,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>8930</v>
+        <v>9831</v>
       </c>
       <c r="C11" s="13">
-        <v>8091</v>
+        <v>8555</v>
       </c>
       <c r="D11" s="14">
-        <v>0.104</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>8930</v>
+        <v>9831</v>
       </c>
       <c r="H11" s="13">
-        <v>8091</v>
+        <v>8555</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>127389</v>
+        <v>140359</v>
       </c>
       <c r="C14" s="10">
-        <v>131817</v>
+        <v>144192</v>
       </c>
       <c r="D14" s="11">
-        <v>-3.4000000000000002E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>127389</v>
+        <v>140359</v>
       </c>
       <c r="H14" s="10">
-        <v>131817</v>
+        <v>144192</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1693,13 +1693,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>24310</v>
+        <v>26839</v>
       </c>
       <c r="C15" s="13">
-        <v>28144</v>
+        <v>30211</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.13600000000000001</v>
+        <v>-0.112</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>24310</v>
+        <v>26839</v>
       </c>
       <c r="H15" s="13">
-        <v>28144</v>
+        <v>30211</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>34577</v>
+        <v>38017</v>
       </c>
       <c r="C16" s="13">
-        <v>36916</v>
+        <v>40729</v>
       </c>
       <c r="D16" s="14">
-        <v>-6.3E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>34577</v>
+        <v>38017</v>
       </c>
       <c r="H16" s="13">
-        <v>36916</v>
+        <v>40729</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>68503</v>
+        <v>75504</v>
       </c>
       <c r="C17" s="13">
-        <v>66758</v>
+        <v>73251</v>
       </c>
       <c r="D17" s="14">
-        <v>2.5999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>68503</v>
+        <v>75504</v>
       </c>
       <c r="H17" s="13">
-        <v>66758</v>
+        <v>73251</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1807,25 +1807,25 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>130528</v>
+        <v>143113</v>
       </c>
       <c r="C18" s="10">
-        <v>128014</v>
+        <v>140516</v>
       </c>
       <c r="D18" s="11">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>21495</v>
+        <v>22845</v>
       </c>
       <c r="F18" s="10">
-        <v>19757</v>
+        <v>21347</v>
       </c>
       <c r="G18" s="10">
-        <v>109033</v>
+        <v>120268</v>
       </c>
       <c r="H18" s="10">
-        <v>108256</v>
+        <v>119169</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -1845,13 +1845,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>81177</v>
+        <v>89380</v>
       </c>
       <c r="C19" s="13">
-        <v>80647</v>
+        <v>88569</v>
       </c>
       <c r="D19" s="14">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>81177</v>
+        <v>89380</v>
       </c>
       <c r="H19" s="13">
-        <v>80647</v>
+        <v>88569</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -1921,25 +1921,25 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>27354</v>
+        <v>29285</v>
       </c>
       <c r="C21" s="13">
-        <v>24888</v>
+        <v>27061</v>
       </c>
       <c r="D21" s="14">
-        <v>9.9000000000000005E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>21495</v>
+        <v>22845</v>
       </c>
       <c r="F21" s="13">
-        <v>19757</v>
+        <v>21347</v>
       </c>
       <c r="G21" s="13">
-        <v>5859</v>
+        <v>6440</v>
       </c>
       <c r="H21" s="13">
-        <v>5131</v>
+        <v>5714</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1959,13 +1959,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>13612</v>
+        <v>15193</v>
       </c>
       <c r="C22" s="13">
-        <v>14167</v>
+        <v>15747</v>
       </c>
       <c r="D22" s="14">
-        <v>-3.9E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>13612</v>
+        <v>15193</v>
       </c>
       <c r="H22" s="13">
-        <v>14167</v>
+        <v>15747</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1997,13 +1997,13 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>8386</v>
+        <v>9255</v>
       </c>
       <c r="C23" s="13">
-        <v>8311</v>
+        <v>9137</v>
       </c>
       <c r="D23" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="13">
-        <v>8386</v>
+        <v>9255</v>
       </c>
       <c r="H23" s="13">
-        <v>8311</v>
+        <v>9137</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2035,25 +2035,25 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>38436</v>
+        <v>41372</v>
       </c>
       <c r="C24" s="10">
-        <v>38569</v>
+        <v>42460</v>
       </c>
       <c r="D24" s="11">
-        <v>-3.0000000000000001E-3</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="E24" s="10">
-        <v>34610</v>
+        <v>37128</v>
       </c>
       <c r="F24" s="10">
-        <v>34221</v>
+        <v>37673</v>
       </c>
       <c r="G24" s="10">
-        <v>3825</v>
+        <v>4243</v>
       </c>
       <c r="H24" s="10">
-        <v>4348</v>
+        <v>4787</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>3825</v>
+        <v>4243</v>
       </c>
       <c r="C25" s="13">
-        <v>4348</v>
+        <v>4787</v>
       </c>
       <c r="D25" s="14">
-        <v>-0.12</v>
+        <v>-0.114</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="13">
-        <v>3825</v>
+        <v>4243</v>
       </c>
       <c r="H25" s="13">
-        <v>4348</v>
+        <v>4787</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -2111,19 +2111,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>7088</v>
+        <v>7333</v>
       </c>
       <c r="C26" s="13">
-        <v>6840</v>
+        <v>7720</v>
       </c>
       <c r="D26" s="14">
-        <v>3.5999999999999997E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="E26" s="13">
-        <v>7088</v>
+        <v>7333</v>
       </c>
       <c r="F26" s="13">
-        <v>6840</v>
+        <v>7720</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2149,19 +2149,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>11547</v>
+        <v>12539</v>
       </c>
       <c r="C27" s="13">
-        <v>10321</v>
+        <v>11072</v>
       </c>
       <c r="D27" s="14">
-        <v>0.11899999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E27" s="13">
-        <v>11547</v>
+        <v>12539</v>
       </c>
       <c r="F27" s="13">
-        <v>10321</v>
+        <v>11072</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -2187,19 +2187,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>7623</v>
+        <v>8506</v>
       </c>
       <c r="C28" s="13">
-        <v>8633</v>
+        <v>9521</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.11700000000000001</v>
+        <v>-0.107</v>
       </c>
       <c r="E28" s="13">
-        <v>7623</v>
+        <v>8506</v>
       </c>
       <c r="F28" s="13">
-        <v>8633</v>
+        <v>9521</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2225,19 +2225,19 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>8353</v>
+        <v>8749</v>
       </c>
       <c r="C29" s="13">
-        <v>8427</v>
+        <v>9361</v>
       </c>
       <c r="D29" s="14">
-        <v>-8.9999999999999993E-3</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>8353</v>
+        <v>8749</v>
       </c>
       <c r="F29" s="13">
-        <v>8427</v>
+        <v>9361</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2339,25 +2339,25 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>171246</v>
+        <v>188144</v>
       </c>
       <c r="C32" s="10">
-        <v>167346</v>
+        <v>182269</v>
       </c>
       <c r="D32" s="11">
-        <v>2.3E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>159061</v>
+        <v>174679</v>
       </c>
       <c r="F32" s="10">
-        <v>155196</v>
+        <v>168839</v>
       </c>
       <c r="G32" s="10">
-        <v>12185</v>
+        <v>13465</v>
       </c>
       <c r="H32" s="10">
-        <v>12150</v>
+        <v>13431</v>
       </c>
       <c r="I32" s="10">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>24171</v>
+        <v>26573</v>
       </c>
       <c r="C35" s="13">
-        <v>23470</v>
+        <v>25501</v>
       </c>
       <c r="D35" s="14">
-        <v>0.03</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>24171</v>
+        <v>26573</v>
       </c>
       <c r="F35" s="13">
-        <v>23470</v>
+        <v>25501</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -2491,19 +2491,19 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>28419</v>
+        <v>31402</v>
       </c>
       <c r="C36" s="13">
-        <v>27790</v>
+        <v>30777</v>
       </c>
       <c r="D36" s="14">
-        <v>2.3E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E36" s="13">
-        <v>28419</v>
+        <v>31402</v>
       </c>
       <c r="F36" s="13">
-        <v>27790</v>
+        <v>30777</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>12185</v>
+        <v>13465</v>
       </c>
       <c r="C37" s="13">
-        <v>12150</v>
+        <v>13431</v>
       </c>
       <c r="D37" s="14">
         <v>3.0000000000000001E-3</v>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>12185</v>
+        <v>13465</v>
       </c>
       <c r="H37" s="13">
-        <v>12150</v>
+        <v>13431</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2567,19 +2567,19 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>35458</v>
+        <v>38905</v>
       </c>
       <c r="C38" s="13">
-        <v>34576</v>
+        <v>38221</v>
       </c>
       <c r="D38" s="14">
-        <v>2.5000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>35458</v>
+        <v>38905</v>
       </c>
       <c r="F38" s="13">
-        <v>34576</v>
+        <v>38221</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>46454</v>
+        <v>50803</v>
       </c>
       <c r="C39" s="13">
-        <v>45433</v>
+        <v>48760</v>
       </c>
       <c r="D39" s="14">
-        <v>2.1999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E39" s="13">
-        <v>46454</v>
+        <v>50803</v>
       </c>
       <c r="F39" s="13">
-        <v>45433</v>
+        <v>48760</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>24559</v>
+        <v>26996</v>
       </c>
       <c r="C40" s="13">
-        <v>23927</v>
+        <v>25580</v>
       </c>
       <c r="D40" s="14">
-        <v>2.5999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E40" s="13">
-        <v>24559</v>
+        <v>26996</v>
       </c>
       <c r="F40" s="13">
-        <v>23927</v>
+        <v>25580</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>62722</v>
+        <v>68974</v>
       </c>
       <c r="C42" s="10">
-        <v>66170</v>
+        <v>72214</v>
       </c>
       <c r="D42" s="11">
-        <v>-5.1999999999999998E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E42" s="10">
-        <v>62722</v>
+        <v>68974</v>
       </c>
       <c r="F42" s="10">
-        <v>66170</v>
+        <v>72214</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>33011</v>
+        <v>36096</v>
       </c>
       <c r="C43" s="13">
-        <v>35000</v>
+        <v>38381</v>
       </c>
       <c r="D43" s="14">
-        <v>-5.7000000000000002E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="E43" s="13">
-        <v>33011</v>
+        <v>36096</v>
       </c>
       <c r="F43" s="13">
-        <v>35000</v>
+        <v>38381</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2833,19 +2833,19 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>5924</v>
+        <v>5911</v>
       </c>
       <c r="C45" s="13">
-        <v>9718</v>
+        <v>10705</v>
       </c>
       <c r="D45" s="14">
-        <v>-0.39</v>
+        <v>-0.44800000000000001</v>
       </c>
       <c r="E45" s="13">
-        <v>5924</v>
+        <v>5911</v>
       </c>
       <c r="F45" s="13">
-        <v>9718</v>
+        <v>10705</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
@@ -2871,19 +2871,19 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>23788</v>
+        <v>26967</v>
       </c>
       <c r="C46" s="13">
-        <v>21452</v>
+        <v>23127</v>
       </c>
       <c r="D46" s="14">
-        <v>0.109</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="E46" s="13">
-        <v>23788</v>
+        <v>26967</v>
       </c>
       <c r="F46" s="13">
-        <v>21452</v>
+        <v>23127</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2909,25 +2909,25 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>60652</v>
+        <v>66197</v>
       </c>
       <c r="C47" s="10">
-        <v>59444</v>
+        <v>63227</v>
       </c>
       <c r="D47" s="11">
-        <v>0.02</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>25678</v>
+        <v>27920</v>
       </c>
       <c r="F47" s="10">
-        <v>25337</v>
+        <v>26847</v>
       </c>
       <c r="G47" s="10">
-        <v>34974</v>
+        <v>38277</v>
       </c>
       <c r="H47" s="10">
-        <v>34107</v>
+        <v>36380</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>11663</v>
+        <v>12372</v>
       </c>
       <c r="C48" s="13">
-        <v>11581</v>
+        <v>12530</v>
       </c>
       <c r="D48" s="14">
-        <v>7.0000000000000001E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E48" s="13">
-        <v>11663</v>
+        <v>12372</v>
       </c>
       <c r="F48" s="13">
-        <v>11581</v>
+        <v>12530</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
@@ -2985,19 +2985,19 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>14015</v>
+        <v>15548</v>
       </c>
       <c r="C49" s="13">
-        <v>13756</v>
+        <v>14317</v>
       </c>
       <c r="D49" s="14">
-        <v>1.9E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E49" s="13">
-        <v>14015</v>
+        <v>15548</v>
       </c>
       <c r="F49" s="13">
-        <v>13756</v>
+        <v>14317</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
@@ -3061,13 +3061,13 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>34974</v>
+        <v>38277</v>
       </c>
       <c r="C51" s="13">
-        <v>34107</v>
+        <v>36380</v>
       </c>
       <c r="D51" s="14">
-        <v>2.5000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>34974</v>
+        <v>38277</v>
       </c>
       <c r="H51" s="13">
-        <v>34107</v>
+        <v>36380</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3099,19 +3099,19 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>26734</v>
+        <v>29394</v>
       </c>
       <c r="C52" s="10">
-        <v>27202</v>
+        <v>29540</v>
       </c>
       <c r="D52" s="11">
-        <v>-1.7000000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E52" s="10">
-        <v>26734</v>
+        <v>29394</v>
       </c>
       <c r="F52" s="10">
-        <v>27202</v>
+        <v>29540</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3137,19 +3137,19 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>26734</v>
+        <v>29394</v>
       </c>
       <c r="C53" s="13">
-        <v>27202</v>
+        <v>29540</v>
       </c>
       <c r="D53" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E53" s="13">
-        <v>26734</v>
+        <v>29394</v>
       </c>
       <c r="F53" s="13">
-        <v>27202</v>
+        <v>29540</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3441,19 +3441,19 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>23746</v>
+        <v>26187</v>
       </c>
       <c r="C61" s="10">
-        <v>22049</v>
+        <v>24223</v>
       </c>
       <c r="D61" s="11">
-        <v>7.6999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E61" s="10">
-        <v>23746</v>
+        <v>26187</v>
       </c>
       <c r="F61" s="10">
-        <v>22049</v>
+        <v>24223</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3479,19 +3479,19 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>15592</v>
+        <v>17214</v>
       </c>
       <c r="C62" s="13">
-        <v>15552</v>
+        <v>16922</v>
       </c>
       <c r="D62" s="14">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E62" s="13">
-        <v>15592</v>
+        <v>17214</v>
       </c>
       <c r="F62" s="13">
-        <v>15552</v>
+        <v>16922</v>
       </c>
       <c r="G62" s="13">
         <v>0</v>
@@ -3555,19 +3555,19 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>8154</v>
+        <v>8973</v>
       </c>
       <c r="C64" s="13">
-        <v>6497</v>
+        <v>7301</v>
       </c>
       <c r="D64" s="14">
-        <v>0.255</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E64" s="13">
-        <v>8154</v>
+        <v>8973</v>
       </c>
       <c r="F64" s="13">
-        <v>6497</v>
+        <v>7301</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3707,25 +3707,25 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>668454</v>
+        <v>733632</v>
       </c>
       <c r="C68" s="10">
-        <v>667280</v>
+        <v>727544</v>
       </c>
       <c r="D68" s="11">
-        <v>2E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E68" s="10">
-        <v>354046</v>
+        <v>387127</v>
       </c>
       <c r="F68" s="10">
-        <v>349932</v>
+        <v>380683</v>
       </c>
       <c r="G68" s="10">
-        <v>314408</v>
+        <v>346505</v>
       </c>
       <c r="H68" s="10">
-        <v>317349</v>
+        <v>346861</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
